--- a/data/Charlie1124/case5/data-case5.xlsx
+++ b/data/Charlie1124/case5/data-case5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caesa/Desktop/CoCo/data/Charlie1124/case5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A0DE3D-8F8B-7549-9669-88546CBFDB07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FC2173-D3DF-334A-9632-2858FE8F7FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="21100" activeTab="1" xr2:uid="{592BECF1-9AFF-3A42-AF50-2F3A5AED9A42}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="19200" windowHeight="17680" activeTab="1" xr2:uid="{592BECF1-9AFF-3A42-AF50-2F3A5AED9A42}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>q</t>
   </si>
@@ -119,7 +119,79 @@
     <t>CET-1 ratio (phase-in)</t>
   </si>
   <si>
-    <t>2024Q1</t>
+    <t>2013Q3</t>
+  </si>
+  <si>
+    <t>2013Q4</t>
+  </si>
+  <si>
+    <t>2014Q1</t>
+  </si>
+  <si>
+    <t>2014Q2</t>
+  </si>
+  <si>
+    <t>2014Q3</t>
+  </si>
+  <si>
+    <t>2014Q4</t>
+  </si>
+  <si>
+    <t>2015Q1</t>
+  </si>
+  <si>
+    <t>2015Q2</t>
+  </si>
+  <si>
+    <t>2015Q3</t>
+  </si>
+  <si>
+    <t>2015Q4</t>
+  </si>
+  <si>
+    <t>2016Q1</t>
+  </si>
+  <si>
+    <t>2016Q2</t>
+  </si>
+  <si>
+    <t>2016Q3</t>
+  </si>
+  <si>
+    <t>2016Q4</t>
+  </si>
+  <si>
+    <t>2017Q1</t>
+  </si>
+  <si>
+    <t>2017Q2</t>
+  </si>
+  <si>
+    <t>2017Q3</t>
+  </si>
+  <si>
+    <t>2017Q4</t>
+  </si>
+  <si>
+    <t>2018Q1</t>
+  </si>
+  <si>
+    <t>2018Q2</t>
+  </si>
+  <si>
+    <t>2018Q3</t>
+  </si>
+  <si>
+    <t>2018Q4</t>
+  </si>
+  <si>
+    <t>2019Q1</t>
+  </si>
+  <si>
+    <t>2019Q2</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
   </si>
 </sst>
 </file>
@@ -481,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136EA463-639A-5C46-BC17-6E0A4A76AC5C}">
   <dimension ref="A1:G543"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C528" sqref="C528"/>
+    <sheetView topLeftCell="A533" workbookViewId="0">
+      <selection activeCell="C551" sqref="C551"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14074,10 +14146,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360E56AF-1107-1D40-8066-EBADC9DD787C}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14086,151 +14158,343 @@
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B2">
-        <v>13.8</v>
+        <v>10.55</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B3">
-        <v>13.88</v>
+        <v>10.44</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B4">
-        <v>13.75</v>
+        <v>10.79</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B5">
-        <v>13.09</v>
+        <v>10.88</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B6">
-        <v>13.12</v>
+        <v>11.33</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B7">
-        <v>13.63</v>
+        <v>11.78</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B8">
-        <v>13.37</v>
+        <v>12.22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B9">
-        <v>13.15</v>
+        <v>12.12</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B10">
-        <v>13.46</v>
+        <v>12.56</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B11">
-        <v>13.61</v>
+        <v>12.94</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B12">
-        <v>13.71</v>
+        <v>13.33</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B13">
-        <v>13.36</v>
+        <v>12.92</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B14">
-        <v>13.82</v>
+        <v>13.25</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B15">
-        <v>13.67</v>
+        <v>12.89</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B16">
-        <v>13.19</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B17">
-        <v>12.6</v>
+        <v>12.56</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B18">
-        <v>12.77</v>
+        <v>12.62</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B19">
+        <v>12.87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20">
+        <v>12.98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21">
+        <v>12.87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22">
+        <v>13.17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23">
+        <v>13.74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24">
+        <v>13.71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25">
+        <v>13.47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>13.88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>13.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>13.09</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <v>13.12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31">
+        <v>13.63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32">
+        <v>13.37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33">
+        <v>13.15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34">
+        <v>13.46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35">
+        <v>13.61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36">
+        <v>13.71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37">
+        <v>13.36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38">
+        <v>13.82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39">
+        <v>13.67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40">
+        <v>13.19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42">
+        <v>12.77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43">
         <v>12.77</v>
       </c>
     </row>
